--- a/APP_controle_de_investimentos-FIIs_REITs.xlsx
+++ b/APP_controle_de_investimentos-FIIs_REITs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29609"/>
   <workbookPr hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{354E6015-91B7-40A3-A7E8-E2BE667BBD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F389FA6-359A-4C37-950F-C8EBB958E77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aplicativo" sheetId="1" r:id="rId1"/>
@@ -156,40 +156,40 @@
     <t>Conservador-TIJOLO</t>
   </si>
   <si>
+    <t>Conservador-HÍBRIDO</t>
+  </si>
+  <si>
+    <t>Conservador-FOFs</t>
+  </si>
+  <si>
+    <t>Conservador-DESENVOLVIMENTO</t>
+  </si>
+  <si>
+    <t>Conservador-HOTELARIA</t>
+  </si>
+  <si>
+    <t>Moderado-PAPEL</t>
+  </si>
+  <si>
+    <t>Moderado</t>
+  </si>
+  <si>
+    <t>Moderado-TIJOLO</t>
+  </si>
+  <si>
+    <t>Moderado-HÍBRIDO</t>
+  </si>
+  <si>
+    <t>Moderado-FOFs</t>
+  </si>
+  <si>
+    <t>Moderado-DESENVOLVIMENTO</t>
+  </si>
+  <si>
+    <t>Moderado-HOTELARIA</t>
+  </si>
+  <si>
     <t>Agressivo-PAPEL</t>
-  </si>
-  <si>
-    <t>Conservador-HÍBRIDO</t>
-  </si>
-  <si>
-    <t>Conservador-FOFs</t>
-  </si>
-  <si>
-    <t>Conservador-DESENVOLVIMENTO</t>
-  </si>
-  <si>
-    <t>Conservador-HOTELARIA</t>
-  </si>
-  <si>
-    <t>Moderado-PAPEL</t>
-  </si>
-  <si>
-    <t>Moderado</t>
-  </si>
-  <si>
-    <t>Moderado-TIJOLO</t>
-  </si>
-  <si>
-    <t>Moderado-HÍBRIDO</t>
-  </si>
-  <si>
-    <t>Moderado-FOFs</t>
-  </si>
-  <si>
-    <t>Moderado-DESENVOLVIMENTO</t>
-  </si>
-  <si>
-    <t>Moderado-HOTELARIA</t>
   </si>
   <si>
     <t>Agressivo</t>
@@ -1953,19 +1953,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
+        <xdr:cNvPr id="4" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88243FD0-1A05-4C1E-8D78-DB31BB3E4AAD}"/>
@@ -1989,7 +1989,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="390525" y="104775"/>
+          <a:off x="485775" y="104775"/>
           <a:ext cx="4933950" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2007,10 +2007,10 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2360,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A10:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2813,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7523316-CAC0-4FB2-978B-CE2FB22F6C6F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2885,12 +2885,12 @@
       <c r="G3" s="20"/>
       <c r="H3" s="35">
         <f>VLOOKUP($F$3,$A:$D,4,FALSE)</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>34</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>34</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>34</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>34</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>43</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>24</v>
@@ -2990,10 +2990,10 @@
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>25</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>26</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>27</v>
@@ -3044,10 +3044,10 @@
     </row>
     <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>28</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>29</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="31" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>49</v>
